--- a/pysg/Data.xlsx
+++ b/pysg/Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="1" r:id="rId1"/>
     <sheet name="Element" sheetId="2" r:id="rId2"/>
-    <sheet name="Constraint" sheetId="3" r:id="rId3"/>
+    <sheet name="Restraint" sheetId="3" r:id="rId3"/>
     <sheet name="nLoad" sheetId="5" r:id="rId4"/>
     <sheet name="eLoad" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,538 +477,6 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1023,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,422 +531,194 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>14</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>17</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>18</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>19</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>20</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>21</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>22</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>23</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>24</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>25</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>26</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>27</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>28</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>29</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>31</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>32</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>33</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>34</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>35</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>36</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>37</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>38</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>39</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>40</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>41</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1488,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,7 +772,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1549,7 +789,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1563,10 +803,25 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1574,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1624,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
